--- a/E2TGST/Resources/Bank Entries.xlsx
+++ b/E2TGST/Resources/Bank Entries.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F12D55BA-1504-4E0B-9A0C-D4851DAA161E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Bank Entries" sheetId="1" r:id="rId1"/>
@@ -48,11 +47,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +59,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -77,11 +90,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -93,52 +174,47 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,21 +225,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F500" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F500" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cheque/Ref. No." dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Withdrawals" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{FD0D436A-488E-4325-A130-71D291F88B0C}" name="Deposits" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1E555531-4569-48A5-8341-3C2FB056F9F3}" name="Ledger Name" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,12 +489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="BankEntries"/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,30 +509,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x/Bz+PwDZ+/b1Py6+kHTZOCOh8Qa5LJ7oznwreBSSbbniC/Uf2gtePmdeoF0e/BQjhRJC1rOL7Wu8iMHd03hDQ==" saltValue="KjVxIPDvkGEAN5D/oXYhXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9hl8FUbV0WxbGHOSXnJnE6rPNjNcJgX+cKDMe0sgUj0aE8GAs5C0AShMPXFD+PNNAFaF0F4wdcZZHAcE5QcYrw==" saltValue="JbQucuuLJLAmkGpC8ZDxsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/E2TGST/Resources/Bank Entries.xlsx
+++ b/E2TGST/Resources/Bank Entries.xlsx
@@ -82,7 +82,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,94 +121,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,117 +428,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="BankEntries"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4" hidden="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9hl8FUbV0WxbGHOSXnJnE6rPNjNcJgX+cKDMe0sgUj0aE8GAs5C0AShMPXFD+PNNAFaF0F4wdcZZHAcE5QcYrw==" saltValue="JbQucuuLJLAmkGpC8ZDxsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>